--- a/docs/StructureDefinition-VAUnfinishedOutpatientMedicationOrderIssue.xlsx
+++ b/docs/StructureDefinition-VAUnfinishedOutpatientMedicationOrderIssue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="295">
   <si>
     <t>Path</t>
   </si>
@@ -323,408 +323,405 @@
     <t>DetectedIssue.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>DetectedIssue.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DetectedIssue.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique id for the detected issue</t>
+  </si>
+  <si>
+    <t>Business identifier associated with the detected issue record.</t>
+  </si>
+  <si>
+    <t>Allows linking instances of the same detected issue found on different servers.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>IAM-7</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>DetectedIssue.status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status
+</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>Indicates the status of the detected issue.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the codes cancelled and entered-in-error that mark the issue as not currently valid.</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates the status of the identified issue</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>DetectedIssue.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Issue Category, e.g. drug-drug, duplicate therapy, etc.</t>
+  </si>
+  <si>
+    <t>Identifies the general type of issue identified.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes identifying the general type of detected issue; e.g. Drug-drug interaction, Timing issue, Duplicate therapy, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/detectedissue-category</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>AL1-2 / IAM-9</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>DetectedIssue.severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severity
+</t>
+  </si>
+  <si>
+    <t>high | moderate | low</t>
+  </si>
+  <si>
+    <t>Indicates the degree of importance associated with the identified issue based on the potential impact on the patient.</t>
+  </si>
+  <si>
+    <t>Indicates the potential degree of impact of the identified issue on the patient.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/detectedissue-severity</t>
+  </si>
+  <si>
+    <t>AL1-4/ IAR-2</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=SEV].value</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>DetectedIssue.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Associated patient</t>
+  </si>
+  <si>
+    <t>Indicates the patient whose record the detected issue is associated with.</t>
+  </si>
+  <si>
+    <t>While the subject could be inferred by tracing the subject of the implicated resources, it's useful to have a direct link for query purposes.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>DetectedIssue.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When identified</t>
+  </si>
+  <si>
+    <t>The date or date-time when the detected issue was initially identified.</t>
+  </si>
+  <si>
+    <t>No-one can be responsible for mitigation prior to the issue being identified.</t>
+  </si>
+  <si>
+    <t>Event.occurrence</t>
+  </si>
+  <si>
+    <t>ALI-6 / IAM-11</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>DetectedIssue.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|Device)
+</t>
+  </si>
+  <si>
+    <t>The provider or device that identified the issue</t>
+  </si>
+  <si>
+    <t>Individual or device responsible for the issue being raised.  For example, a decision support application or a pharmacist conducting a medication review.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>IAM-14 / IAM-16</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role[classCode=ASSIGNED]</t>
+  </si>
+  <si>
+    <t>who.author</t>
+  </si>
+  <si>
+    <t>DetectedIssue.implicated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Problem resource</t>
+  </si>
+  <si>
+    <t>Indicates the resource representing the current activity or proposed activity that is potentially problematic.</t>
+  </si>
+  <si>
+    <t>There's an implicit constraint on the number of implicated resources based on DetectedIssue.type; e.g. For drug-drug, there would be more than one.  For timing, there would typically only be one.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=SUBJ].target[moodCode=EVN, INT]</t>
+  </si>
+  <si>
+    <t>DetectedIssue.detail</t>
+  </si>
+  <si>
+    <t>ORDER CHECK NARRATIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Description and context</t>
+  </si>
+  <si>
+    <t>This is the text which describes the order check.</t>
+  </si>
+  <si>
+    <t>Should focus on information not covered elsewhere as discrete data - no need to duplicate the narrative.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @ORDER CHECK NARRATIVE 52.4118-.01</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>AL1-5 / IAM-8</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>DetectedIssue.reference</t>
+  </si>
+  <si>
+    <t>Authority for issue</t>
+  </si>
+  <si>
+    <t>The literature, knowledge-base or similar reference that describes the propensity for the detected issue identified.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=INST].target[classCode=ALRT, moodCode=DEFN].text.uri</t>
+  </si>
+  <si>
+    <t>DetectedIssue.mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Step taken to address</t>
+  </si>
+  <si>
+    <t>Indicates an action that has been taken or is committed to to reduce or eliminate the likelihood of the risk identified by the detected issue from manifesting.  Can also reflect an observation of known mitigating factors that may reduce/eliminate the need for any action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=MITG].target[classCode=ACT, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>DetectedIssue.mitigation.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DetectedIssue.mitigation.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DetectedIssue.mitigation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DetectedIssue.mitigation.action</t>
+  </si>
+  <si>
+    <t>What mitigation?</t>
+  </si>
+  <si>
+    <t>Describes the action that was taken or the observation that was made that reduces/eliminates the risk associated with the identified issue.</t>
+  </si>
+  <si>
+    <t>The "text" component can be used for detail or when no appropriate code exists.</t>
+  </si>
+  <si>
+    <t>Codes describing steps taken to resolve the issue or other circumstances that mitigate the risk associated with the issue; e.g. 'added concurrent therapy', 'prior therapy documented', etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/detectedissue-mitigation-action</t>
+  </si>
+  <si>
+    <t>DetectedIssue.mitigation.action.id</t>
+  </si>
+  <si>
+    <t>DetectedIssue.mitigation.action.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>DetectedIssue.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DetectedIssue.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique id for the detected issue</t>
-  </si>
-  <si>
-    <t>Business identifier associated with the detected issue record.</t>
-  </si>
-  <si>
-    <t>Allows linking instances of the same detected issue found on different servers.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>IAM-7</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>DetectedIssue.status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status
-</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>Indicates the status of the detected issue.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the codes cancelled and entered-in-error that mark the issue as not currently valid.</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indicates the status of the identified issue</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>DetectedIssue.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Issue Category, e.g. drug-drug, duplicate therapy, etc.</t>
-  </si>
-  <si>
-    <t>Identifies the general type of issue identified.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes identifying the general type of detected issue; e.g. Drug-drug interaction, Timing issue, Duplicate therapy, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/detectedissue-category</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>AL1-2 / IAM-9</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>DetectedIssue.severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">severity
-</t>
-  </si>
-  <si>
-    <t>high | moderate | low</t>
-  </si>
-  <si>
-    <t>Indicates the degree of importance associated with the identified issue based on the potential impact on the patient.</t>
-  </si>
-  <si>
-    <t>Indicates the potential degree of impact of the identified issue on the patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/detectedissue-severity</t>
-  </si>
-  <si>
-    <t>AL1-4/ IAR-2</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=SEV].value</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>DetectedIssue.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Associated patient</t>
-  </si>
-  <si>
-    <t>Indicates the patient whose record the detected issue is associated with.</t>
-  </si>
-  <si>
-    <t>While the subject could be inferred by tracing the subject of the implicated resources, it's useful to have a direct link for query purposes.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>DetectedIssue.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When identified</t>
-  </si>
-  <si>
-    <t>The date or date-time when the detected issue was initially identified.</t>
-  </si>
-  <si>
-    <t>No-one can be responsible for mitigation prior to the issue being identified.</t>
-  </si>
-  <si>
-    <t>Event.occurrence</t>
-  </si>
-  <si>
-    <t>ALI-6 / IAM-11</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>DetectedIssue.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Device)
-</t>
-  </si>
-  <si>
-    <t>The provider or device that identified the issue</t>
-  </si>
-  <si>
-    <t>Individual or device responsible for the issue being raised.  For example, a decision support application or a pharmacist conducting a medication review.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>IAM-14 / IAM-16</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role[classCode=ASSIGNED]</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>DetectedIssue.implicated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cause
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Problem resource</t>
-  </si>
-  <si>
-    <t>Indicates the resource representing the current activity or proposed activity that is potentially problematic.</t>
-  </si>
-  <si>
-    <t>There's an implicit constraint on the number of implicated resources based on DetectedIssue.type; e.g. For drug-drug, there would be more than one.  For timing, there would typically only be one.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=SUBJ].target[moodCode=EVN, INT]</t>
-  </si>
-  <si>
-    <t>DetectedIssue.detail</t>
-  </si>
-  <si>
-    <t>ORDER CHECK NARRATIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Description and context</t>
-  </si>
-  <si>
-    <t>This is the text which describes the order check.</t>
-  </si>
-  <si>
-    <t>Should focus on information not covered elsewhere as discrete data - no need to duplicate the narrative.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @ORDER CHECK NARRATIVE 52.4118-.01</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>AL1-5 / IAM-8</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>DetectedIssue.reference</t>
-  </si>
-  <si>
-    <t>Authority for issue</t>
-  </si>
-  <si>
-    <t>The literature, knowledge-base or similar reference that describes the propensity for the detected issue identified.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=INST].target[classCode=ALRT, moodCode=DEFN].text.uri</t>
-  </si>
-  <si>
-    <t>DetectedIssue.mitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Step taken to address</t>
-  </si>
-  <si>
-    <t>Indicates an action that has been taken or is committed to to reduce or eliminate the likelihood of the risk identified by the detected issue from manifesting.  Can also reflect an observation of known mitigating factors that may reduce/eliminate the need for any action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=MITG].target[classCode=ACT, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>DetectedIssue.mitigation.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DetectedIssue.mitigation.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DetectedIssue.mitigation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>DetectedIssue.mitigation.action</t>
-  </si>
-  <si>
-    <t>What mitigation?</t>
-  </si>
-  <si>
-    <t>Describes the action that was taken or the observation that was made that reduces/eliminates the risk associated with the identified issue.</t>
-  </si>
-  <si>
-    <t>The "text" component can be used for detail or when no appropriate code exists.</t>
-  </si>
-  <si>
-    <t>Codes describing steps taken to resolve the issue or other circumstances that mitigate the risk associated with the issue; e.g. 'added concurrent therapy', 'prior therapy documented', etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/detectedissue-mitigation-action</t>
-  </si>
-  <si>
-    <t>DetectedIssue.mitigation.action.id</t>
-  </si>
-  <si>
-    <t>DetectedIssue.mitigation.action.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DetectedIssue.mitigation.action.coding</t>
@@ -2056,7 +2053,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2075,15 +2072,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2120,14 +2119,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2154,7 +2155,7 @@
         <v>44</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>44</v>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2185,16 +2186,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2244,7 +2245,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2276,7 +2277,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2299,17 +2300,17 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2358,7 +2359,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2376,25 +2377,25 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2416,13 +2417,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2430,85 +2431,85 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2527,13 +2528,13 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2560,67 +2561,67 @@
         <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2642,10 +2643,10 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2672,63 +2673,63 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2751,17 +2752,17 @@
         <v>54</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -2810,7 +2811,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2828,21 +2829,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2865,17 +2866,17 @@
         <v>54</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -2924,7 +2925,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2942,21 +2943,21 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2979,13 +2980,13 @@
         <v>54</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3036,7 +3037,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3054,25 +3055,25 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3091,16 +3092,16 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3150,7 +3151,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3168,13 +3169,13 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3182,14 +3183,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>42</v>
@@ -3207,16 +3208,16 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3266,7 +3267,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3281,16 +3282,16 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3298,7 +3299,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3324,10 +3325,10 @@
         <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3378,7 +3379,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3402,7 +3403,7 @@
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -3410,7 +3411,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3433,13 +3434,13 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3490,7 +3491,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3502,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
@@ -3514,7 +3515,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3522,7 +3523,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3545,13 +3546,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3602,7 +3603,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3626,7 +3627,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3634,11 +3635,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3657,16 +3658,16 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3716,7 +3717,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3740,7 +3741,7 @@
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -3748,11 +3749,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3771,16 +3772,16 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3830,7 +3831,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3862,7 +3863,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3885,16 +3886,16 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3920,13 +3921,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -3944,7 +3945,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -3968,7 +3969,7 @@
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -3976,7 +3977,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3999,13 +4000,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4056,7 +4057,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4080,7 +4081,7 @@
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4088,11 +4089,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4111,16 +4112,16 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4158,19 +4159,19 @@
         <v>44</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4194,7 +4195,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4202,7 +4203,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4225,19 +4226,19 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4286,7 +4287,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4307,10 +4308,10 @@
         <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4318,7 +4319,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4341,13 +4342,13 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4398,7 +4399,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4422,7 +4423,7 @@
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4430,11 +4431,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4453,16 +4454,16 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4500,19 +4501,19 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4536,7 +4537,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4544,7 +4545,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4570,16 +4571,16 @@
         <v>66</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4628,31 +4629,31 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4660,7 +4661,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4683,16 +4684,16 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4742,31 +4743,31 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -4774,14 +4775,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>42</v>
@@ -4802,14 +4803,14 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -4858,31 +4859,31 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -4890,7 +4891,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4913,17 +4914,17 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -4972,31 +4973,31 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5004,7 +5005,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5027,19 +5028,19 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5088,31 +5089,31 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5120,7 +5121,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5143,19 +5144,19 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5204,31 +5205,31 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5236,7 +5237,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5259,16 +5260,16 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5318,7 +5319,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5342,7 +5343,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5350,14 +5351,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E38" t="s" s="2">
         <v>42</v>
@@ -5375,13 +5376,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5432,7 +5433,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5447,7 +5448,7 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -5456,7 +5457,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
